--- a/文档/MES报警代码对接/B线报警代码.xlsx
+++ b/文档/MES报警代码对接/B线报警代码.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19226"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\项目\明美项目\Git_mingmei\MingMeiMES\文档\MES报警代码对接\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{3A8670F8-3DF2-4B45-8451-CA8E699E5D3D}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="19770" windowHeight="7950" tabRatio="544"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15830" windowHeight="8520" tabRatio="544" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="B线首端机器人" sheetId="2" r:id="rId1"/>
@@ -18,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="336">
   <si>
     <t>报警代码</t>
   </si>
@@ -138,7 +144,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>X</t>
     </r>
@@ -159,7 +165,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>Y</t>
     </r>
@@ -180,7 +186,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>X</t>
     </r>
@@ -201,7 +207,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>Y</t>
     </r>
@@ -222,7 +228,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>X</t>
     </r>
@@ -243,7 +249,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>Y</t>
     </r>
@@ -273,7 +279,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>A</t>
     </r>
@@ -289,7 +295,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>1</t>
     </r>
@@ -313,7 +319,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>A</t>
     </r>
@@ -329,7 +335,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>2</t>
     </r>
@@ -353,7 +359,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>A</t>
     </r>
@@ -369,7 +375,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>3</t>
     </r>
@@ -393,7 +399,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>A</t>
     </r>
@@ -409,7 +415,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>4</t>
     </r>
@@ -433,7 +439,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>B</t>
     </r>
@@ -449,7 +455,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>1</t>
     </r>
@@ -473,7 +479,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>B</t>
     </r>
@@ -489,7 +495,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>2</t>
     </r>
@@ -513,7 +519,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>B</t>
     </r>
@@ -529,7 +535,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>3</t>
     </r>
@@ -553,7 +559,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>B</t>
     </r>
@@ -569,7 +575,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>4</t>
     </r>
@@ -593,7 +599,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>X</t>
     </r>
@@ -617,7 +623,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>Y</t>
     </r>
@@ -641,7 +647,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>X</t>
     </r>
@@ -665,7 +671,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>X</t>
     </r>
@@ -689,7 +695,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>Y</t>
     </r>
@@ -713,7 +719,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>Y</t>
     </r>
@@ -824,7 +830,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>NG</t>
     </r>
@@ -848,7 +854,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>A</t>
     </r>
@@ -864,7 +870,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>1</t>
     </r>
@@ -888,7 +894,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>A</t>
     </r>
@@ -904,7 +910,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>2</t>
     </r>
@@ -928,7 +934,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>A</t>
     </r>
@@ -944,7 +950,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>3</t>
     </r>
@@ -968,7 +974,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>A</t>
     </r>
@@ -984,7 +990,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>4</t>
     </r>
@@ -1008,7 +1014,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>B</t>
     </r>
@@ -1024,7 +1030,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>1</t>
     </r>
@@ -1048,7 +1054,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>B</t>
     </r>
@@ -1064,7 +1070,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>2</t>
     </r>
@@ -1088,7 +1094,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>B</t>
     </r>
@@ -1104,7 +1110,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>3</t>
     </r>
@@ -1128,7 +1134,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>B</t>
     </r>
@@ -1144,7 +1150,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>4</t>
     </r>
@@ -1168,7 +1174,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>NG</t>
     </r>
@@ -1192,7 +1198,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>NG</t>
     </r>
@@ -1305,7 +1311,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>NG</t>
     </r>
@@ -1755,19 +1761,33 @@
   </si>
   <si>
     <t>203IALM008</t>
+  </si>
+  <si>
+    <t>MES工作中心：Y00101601</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>MES工作中心：Y00102101</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>MES工作中心：Y00101901</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>:</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>;</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="26">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1790,7 +1810,7 @@
     <font>
       <sz val="12"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1812,345 +1832,43 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="12"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -2158,253 +1876,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2432,62 +1908,25 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2772,28 +2211,28 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E136"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.375" customWidth="1"/>
+    <col min="1" max="1" width="12.36328125" customWidth="1"/>
     <col min="2" max="2" width="9" style="11"/>
-    <col min="3" max="3" width="39.6333333333333" style="12" customWidth="1"/>
-    <col min="4" max="4" width="23.75" style="5" customWidth="1"/>
-    <col min="5" max="5" width="32.375" customWidth="1"/>
+    <col min="3" max="3" width="39.6328125" style="12" customWidth="1"/>
+    <col min="4" max="4" width="23.7265625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="32.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="21" customHeight="1" spans="1:3">
+    <row r="1" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2804,7 +2243,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -2816,7 +2255,7 @@
       </c>
       <c r="E2" s="14"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -2828,7 +2267,7 @@
       </c>
       <c r="E3" s="14"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
@@ -2839,7 +2278,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
@@ -2850,7 +2289,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>15</v>
       </c>
@@ -2861,7 +2300,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>18</v>
       </c>
@@ -2872,7 +2311,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>21</v>
       </c>
@@ -2883,7 +2322,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>24</v>
       </c>
@@ -2894,7 +2333,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>27</v>
       </c>
@@ -2905,7 +2344,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>30</v>
       </c>
@@ -2916,2971 +2355,4653 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="C12" s="13"/>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="C13" s="13"/>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="C14" s="13"/>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="C33" s="13"/>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
       <c r="C39" s="13"/>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="C40" s="13"/>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="C41" s="13"/>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
       <c r="C42" s="13"/>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
       <c r="C43" s="13"/>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
       <c r="C44" s="13"/>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
       <c r="C45" s="13"/>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
       <c r="C46" s="13"/>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="3"/>
       <c r="C47" s="13"/>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
       <c r="C48" s="13"/>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="3"/>
       <c r="C49" s="13"/>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="3"/>
       <c r="C50" s="13"/>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="3"/>
       <c r="C51" s="13"/>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="3"/>
       <c r="C52" s="13"/>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="3"/>
       <c r="C53" s="13"/>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="3"/>
       <c r="C54" s="13"/>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="3"/>
       <c r="C55" s="13"/>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="3"/>
       <c r="C56" s="13"/>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="3"/>
       <c r="C57" s="13"/>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="3"/>
       <c r="C58" s="13"/>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="3"/>
       <c r="C59" s="13"/>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="3"/>
       <c r="C60" s="13"/>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="3"/>
       <c r="C61" s="13"/>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="3"/>
       <c r="C62" s="13"/>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="3"/>
       <c r="C63" s="13"/>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="3"/>
       <c r="C64" s="13"/>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="3"/>
       <c r="C65" s="13"/>
     </row>
-    <row r="66" spans="1:1">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="3"/>
     </row>
-    <row r="67" spans="1:1">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="3"/>
     </row>
-    <row r="68" spans="1:1">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="3"/>
     </row>
-    <row r="69" spans="1:1">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="3"/>
     </row>
-    <row r="70" spans="1:1">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="3"/>
     </row>
-    <row r="71" spans="1:1">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
     </row>
-    <row r="72" spans="1:1">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="3"/>
     </row>
-    <row r="73" spans="1:1">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="3"/>
     </row>
-    <row r="74" spans="1:1">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="3"/>
     </row>
-    <row r="75" spans="1:1">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="3"/>
     </row>
-    <row r="76" spans="1:1">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="3"/>
     </row>
-    <row r="77" spans="1:1">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="3"/>
     </row>
-    <row r="78" spans="1:1">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="3"/>
     </row>
-    <row r="79" spans="1:1">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="3"/>
     </row>
-    <row r="80" spans="1:1">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="3"/>
     </row>
-    <row r="81" spans="1:1">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" s="3"/>
     </row>
-    <row r="82" spans="1:1">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="3"/>
     </row>
-    <row r="83" spans="1:1">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" s="3"/>
     </row>
-    <row r="84" spans="1:1">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" s="3"/>
     </row>
-    <row r="85" spans="1:1">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" s="3"/>
     </row>
-    <row r="86" spans="1:1">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" s="3"/>
     </row>
-    <row r="87" spans="1:1">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" s="3"/>
     </row>
-    <row r="88" spans="1:1">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" s="3"/>
     </row>
-    <row r="89" spans="1:1">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" s="3"/>
     </row>
-    <row r="90" spans="1:1">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" s="3"/>
     </row>
-    <row r="91" spans="1:1">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" s="3"/>
     </row>
-    <row r="92" spans="1:1">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" s="3"/>
     </row>
-    <row r="93" spans="1:1">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" s="3"/>
     </row>
-    <row r="94" spans="1:1">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" s="3"/>
     </row>
-    <row r="95" spans="1:1">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" s="3"/>
     </row>
-    <row r="96" spans="1:1">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" s="3"/>
     </row>
-    <row r="97" spans="1:1">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" s="3"/>
     </row>
-    <row r="98" spans="1:1">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" s="3"/>
     </row>
-    <row r="99" spans="1:1">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" s="3"/>
     </row>
-    <row r="100" spans="1:1">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" s="3"/>
     </row>
-    <row r="101" spans="1:1">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" s="3"/>
     </row>
-    <row r="102" spans="1:1">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" s="3"/>
     </row>
-    <row r="103" spans="1:1">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" s="3"/>
     </row>
-    <row r="104" spans="1:1">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" s="3"/>
     </row>
-    <row r="105" spans="1:1">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" s="3"/>
     </row>
-    <row r="106" spans="1:1">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" s="3"/>
     </row>
-    <row r="107" spans="1:1">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" s="3"/>
     </row>
-    <row r="108" spans="1:1">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" s="3"/>
     </row>
-    <row r="109" spans="1:1">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" s="3"/>
     </row>
-    <row r="110" spans="1:1">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" s="3"/>
     </row>
-    <row r="111" spans="1:1">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" s="3"/>
     </row>
-    <row r="112" spans="1:1">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" s="3"/>
     </row>
-    <row r="113" spans="1:1">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" s="3"/>
     </row>
-    <row r="114" spans="1:1">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" s="3"/>
     </row>
-    <row r="115" spans="1:1">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" s="3"/>
     </row>
-    <row r="116" spans="1:1">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" s="3"/>
     </row>
-    <row r="117" spans="1:1">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" s="3"/>
     </row>
-    <row r="118" spans="1:1">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" s="3"/>
     </row>
-    <row r="119" spans="1:1">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" s="3"/>
     </row>
-    <row r="120" spans="1:1">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" s="3"/>
     </row>
-    <row r="121" spans="1:1">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" s="3"/>
     </row>
-    <row r="122" spans="1:1">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" s="3"/>
     </row>
-    <row r="123" spans="1:1">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" s="3"/>
     </row>
-    <row r="124" spans="1:1">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" s="3"/>
     </row>
-    <row r="125" spans="1:1">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" s="3"/>
     </row>
-    <row r="126" spans="1:1">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" s="3"/>
     </row>
-    <row r="127" spans="1:1">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" s="3"/>
     </row>
-    <row r="128" spans="1:1">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" s="3"/>
     </row>
-    <row r="129" spans="1:1">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" s="3"/>
     </row>
-    <row r="130" spans="1:1">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" s="3"/>
     </row>
-    <row r="131" spans="1:1">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" s="3"/>
     </row>
-    <row r="132" spans="1:1">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" s="3"/>
     </row>
-    <row r="133" spans="1:1">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" s="3"/>
     </row>
-    <row r="134" spans="1:1">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" s="3"/>
     </row>
-    <row r="135" spans="1:1">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" s="3"/>
     </row>
-    <row r="136" spans="1:1">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="E2:E3"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:D193"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:F57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5" customWidth="1"/>
-    <col min="3" max="3" width="39.6333333333333" customWidth="1"/>
+    <col min="2" max="2" width="2.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.453125" customWidth="1"/>
+    <col min="6" max="6" width="2.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="21" customHeight="1" spans="1:4">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>32</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5"/>
-    </row>
-    <row r="2" ht="14.25" spans="1:3">
-      <c r="A2" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="D1" s="1"/>
+      <c r="E1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="2"/>
+      <c r="G1" s="5" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>4</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>334</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="3" ht="14.25" spans="1:3">
-      <c r="A3" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="D2" s="16" t="s">
+        <v>334</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>7</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>334</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="4" ht="15" spans="1:3">
-      <c r="A4" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="D3" s="16" t="s">
+        <v>334</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="16" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>10</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>334</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="5" ht="15" spans="1:3">
-      <c r="A5" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="D4" s="16" t="s">
+        <v>334</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="16" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>13</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>334</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="6" ht="15" spans="1:3">
-      <c r="A6" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="D5" s="16" t="s">
+        <v>334</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="16" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>16</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>334</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="7" ht="15" spans="1:3">
-      <c r="A7" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="D6" s="16" t="s">
+        <v>334</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="16" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>19</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>334</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="8" ht="15" spans="1:3">
-      <c r="A8" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="D7" s="16" t="s">
+        <v>334</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="16" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
         <v>22</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>334</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="9" ht="15" spans="1:3">
-      <c r="A9" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="D8" s="16" t="s">
+        <v>334</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="16" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
         <v>25</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>334</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="10" ht="14.25" spans="1:3">
-      <c r="A10" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="D9" s="16" t="s">
+        <v>334</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>28</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>334</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="11" ht="15" spans="1:3">
-      <c r="A11" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="D10" s="16" t="s">
+        <v>334</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="16" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
         <v>52</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>334</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="12" ht="15" spans="1:3">
-      <c r="A12" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="D11" s="16" t="s">
+        <v>334</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="16" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
         <v>55</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>334</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="13" ht="15" spans="1:3">
-      <c r="A13" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="D12" s="16" t="s">
+        <v>334</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="16" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
         <v>58</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>334</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="14" ht="15" spans="1:3">
-      <c r="A14" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="D13" s="16" t="s">
+        <v>334</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="16" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
         <v>61</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>334</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="15" ht="15" spans="1:3">
-      <c r="A15" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="D14" s="16" t="s">
+        <v>334</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F14" s="17" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="16" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
         <v>64</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>334</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="16" ht="15" spans="1:3">
-      <c r="A16" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="D15" s="16" t="s">
+        <v>334</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="16" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
         <v>67</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>334</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="17" ht="15" spans="1:3">
-      <c r="A17" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="D16" s="16" t="s">
+        <v>334</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="16" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
         <v>70</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>334</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="18" ht="15" spans="1:3">
-      <c r="A18" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="D17" s="16" t="s">
+        <v>334</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="16" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
         <v>73</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>334</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="19" ht="15" spans="1:3">
-      <c r="A19" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="D18" s="16" t="s">
+        <v>334</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F18" s="17" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="16" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
         <v>76</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>334</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="20" ht="15" spans="1:3">
-      <c r="A20" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="D19" s="16" t="s">
+        <v>334</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F19" s="17" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="16" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
         <v>79</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>334</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="21" ht="15" spans="1:3">
-      <c r="A21" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B21" t="s">
+      <c r="D20" s="16" t="s">
+        <v>334</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F20" s="17" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="16" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
         <v>82</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>334</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="22" ht="15" spans="1:3">
-      <c r="A22" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B22" t="s">
+      <c r="D21" s="16" t="s">
+        <v>334</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F21" s="17" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="16" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
         <v>85</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>334</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="23" ht="15" spans="1:3">
-      <c r="A23" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B23" t="s">
+      <c r="D22" s="16" t="s">
+        <v>334</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F22" s="17" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="16" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
         <v>88</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>334</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="24" ht="15" spans="1:3">
-      <c r="A24" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B24" t="s">
+      <c r="D23" s="16" t="s">
+        <v>334</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F23" s="17" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="16" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
         <v>91</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>334</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="25" ht="14.25" spans="1:3">
-      <c r="A25" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B25" t="s">
+      <c r="D24" s="16" t="s">
+        <v>334</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F24" s="17" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>94</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>334</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="26" ht="14.25" spans="1:3">
-      <c r="A26" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B26" t="s">
+      <c r="D25" s="16" t="s">
+        <v>334</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F25" s="17" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>97</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>334</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="27" ht="14.25" spans="1:3">
-      <c r="A27" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B27" t="s">
+      <c r="D26" s="16" t="s">
+        <v>334</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F26" s="17" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>99</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>334</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="28" ht="14.25" spans="1:3">
-      <c r="A28" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B28" t="s">
+      <c r="D27" s="16" t="s">
+        <v>334</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="F27" s="17" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>102</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>334</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="29" ht="14.25" spans="1:3">
-      <c r="A29" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B29" t="s">
+      <c r="D28" s="16" t="s">
+        <v>334</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="F28" s="17" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>105</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>334</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="30" ht="14.25" spans="1:3">
-      <c r="A30" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="B30" t="s">
+      <c r="D29" s="16" t="s">
+        <v>334</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="F29" s="17" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>108</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>334</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="31" ht="14.25" spans="1:3">
-      <c r="A31" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="B31" t="s">
+      <c r="D30" s="16" t="s">
+        <v>334</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F30" s="17" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>111</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>334</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="32" ht="14.25" spans="1:3">
-      <c r="A32" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="B32" t="s">
+      <c r="D31" s="16" t="s">
+        <v>334</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="F31" s="17" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>114</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>334</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="33" ht="14.25" spans="1:3">
-      <c r="A33" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="B33" t="s">
+      <c r="D32" s="16" t="s">
+        <v>334</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="F32" s="17" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>117</v>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>334</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="34" ht="14.25" spans="1:3">
-      <c r="A34" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="B34" t="s">
+      <c r="D33" s="16" t="s">
+        <v>334</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F33" s="17" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>120</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>334</v>
       </c>
       <c r="C34" s="9" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="35" ht="15" spans="1:3">
-      <c r="A35" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="B35" t="s">
+      <c r="D34" s="16" t="s">
+        <v>334</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F34" s="17" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="16" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
         <v>123</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>334</v>
       </c>
       <c r="C35" s="8" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="36" ht="15" spans="1:3">
-      <c r="A36" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="B36" t="s">
+      <c r="D35" s="16" t="s">
+        <v>334</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F35" s="17" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="16" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
         <v>126</v>
+      </c>
+      <c r="B36" s="15" t="s">
+        <v>334</v>
       </c>
       <c r="C36" s="8" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="37" ht="15" spans="1:3">
-      <c r="A37" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="B37" t="s">
+      <c r="D36" s="16" t="s">
+        <v>334</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="F36" s="17" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="16" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
         <v>129</v>
+      </c>
+      <c r="B37" s="15" t="s">
+        <v>334</v>
       </c>
       <c r="C37" s="8" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="38" ht="15" spans="1:3">
-      <c r="A38" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="B38" t="s">
+      <c r="D37" s="16" t="s">
+        <v>334</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F37" s="17" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="16" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
         <v>132</v>
+      </c>
+      <c r="B38" s="15" t="s">
+        <v>334</v>
       </c>
       <c r="C38" s="8" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="39" ht="15" spans="1:3">
-      <c r="A39" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="B39" t="s">
+      <c r="D38" s="16" t="s">
+        <v>334</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="F38" s="17" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="16" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
         <v>135</v>
+      </c>
+      <c r="B39" s="15" t="s">
+        <v>334</v>
       </c>
       <c r="C39" s="8" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="40" ht="15" spans="1:3">
-      <c r="A40" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="B40" t="s">
+      <c r="D39" s="16" t="s">
+        <v>334</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="F39" s="17" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="16" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
         <v>138</v>
+      </c>
+      <c r="B40" s="15" t="s">
+        <v>334</v>
       </c>
       <c r="C40" s="8" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="41" ht="15" spans="1:3">
-      <c r="A41" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="B41" t="s">
+      <c r="D40" s="16" t="s">
+        <v>334</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F40" s="17" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="16" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
         <v>141</v>
+      </c>
+      <c r="B41" s="15" t="s">
+        <v>334</v>
       </c>
       <c r="C41" s="8" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="42" ht="15" spans="1:3">
-      <c r="A42" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="B42" t="s">
+      <c r="D41" s="16" t="s">
+        <v>334</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="F41" s="17" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="16" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
         <v>144</v>
+      </c>
+      <c r="B42" s="15" t="s">
+        <v>334</v>
       </c>
       <c r="C42" s="8" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="43" ht="15" spans="1:3">
-      <c r="A43" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="B43" t="s">
+      <c r="D42" s="16" t="s">
+        <v>334</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="F42" s="17" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="16" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
         <v>147</v>
+      </c>
+      <c r="B43" s="15" t="s">
+        <v>334</v>
       </c>
       <c r="C43" s="8" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="44" ht="15" spans="1:3">
-      <c r="A44" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="B44" t="s">
+      <c r="D43" s="16" t="s">
+        <v>334</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="F43" s="17" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="16" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
         <v>150</v>
+      </c>
+      <c r="B44" s="15" t="s">
+        <v>334</v>
       </c>
       <c r="C44" s="8" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="45" ht="15" spans="1:3">
-      <c r="A45" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="B45" t="s">
+      <c r="D44" s="16" t="s">
+        <v>334</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="F44" s="17" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="16" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
         <v>153</v>
+      </c>
+      <c r="B45" s="15" t="s">
+        <v>334</v>
       </c>
       <c r="C45" s="8" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="46" ht="14.25" spans="1:3">
-      <c r="A46" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="B46" t="s">
+      <c r="D45" s="16" t="s">
+        <v>334</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="F45" s="17" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>156</v>
+      </c>
+      <c r="B46" s="15" t="s">
+        <v>334</v>
       </c>
       <c r="C46" s="7" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="47" ht="14.25" spans="1:3">
-      <c r="A47" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="B47" t="s">
+      <c r="D46" s="16" t="s">
+        <v>334</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="F46" s="17" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>159</v>
+      </c>
+      <c r="B47" s="15" t="s">
+        <v>334</v>
       </c>
       <c r="C47" s="7" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="48" ht="14.25" spans="1:3">
-      <c r="A48" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="B48" t="s">
+      <c r="D47" s="16" t="s">
+        <v>334</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="F47" s="17" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>161</v>
+      </c>
+      <c r="B48" s="15" t="s">
+        <v>334</v>
       </c>
       <c r="C48" s="7" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="49" ht="14.25" spans="1:3">
-      <c r="A49" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="B49" t="s">
+      <c r="D48" s="16" t="s">
+        <v>334</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="F48" s="17" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>163</v>
+      </c>
+      <c r="B49" s="15" t="s">
+        <v>334</v>
       </c>
       <c r="C49" s="7" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="50" ht="14.25" spans="1:3">
-      <c r="A50" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="B50" t="s">
+      <c r="D49" s="16" t="s">
+        <v>334</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F49" s="17" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>165</v>
+      </c>
+      <c r="B50" s="15" t="s">
+        <v>334</v>
       </c>
       <c r="C50" s="7" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="51" ht="14.25" spans="1:3">
-      <c r="A51" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="B51" t="s">
+      <c r="D50" s="16" t="s">
+        <v>334</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="F50" s="17" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>168</v>
+      </c>
+      <c r="B51" s="15" t="s">
+        <v>334</v>
       </c>
       <c r="C51" s="7" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="52" ht="14.25" spans="1:3">
-      <c r="A52" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="B52" t="s">
+      <c r="D51" s="16" t="s">
+        <v>334</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="F51" s="17" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>171</v>
+      </c>
+      <c r="B52" s="15" t="s">
+        <v>334</v>
       </c>
       <c r="C52" s="7" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="53" ht="14.25" spans="1:3">
-      <c r="A53" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="B53" t="s">
+      <c r="D52" s="16" t="s">
+        <v>334</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="F52" s="17" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>174</v>
+      </c>
+      <c r="B53" s="15" t="s">
+        <v>334</v>
       </c>
       <c r="C53" s="7" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="54" ht="14.25" spans="1:3">
-      <c r="A54" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="B54" t="s">
+      <c r="D53" s="16" t="s">
+        <v>334</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="F53" s="17" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>177</v>
+      </c>
+      <c r="B54" s="15" t="s">
+        <v>334</v>
       </c>
       <c r="C54" s="7" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="55" ht="14.25" spans="1:3">
-      <c r="A55" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="B55" t="s">
+      <c r="D54" s="16" t="s">
+        <v>334</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="F54" s="17" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>180</v>
+      </c>
+      <c r="B55" s="15" t="s">
+        <v>334</v>
       </c>
       <c r="C55" s="7" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="56" ht="15" spans="1:3">
-      <c r="A56" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="B56" t="s">
+      <c r="D55" s="16" t="s">
+        <v>334</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="F55" s="17" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="16" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
         <v>183</v>
+      </c>
+      <c r="B56" s="15" t="s">
+        <v>334</v>
       </c>
       <c r="C56" s="7" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="57" ht="14.25" spans="1:3">
-      <c r="A57" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="B57" t="s">
+      <c r="D56" s="16" t="s">
+        <v>334</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="F56" s="17" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>186</v>
+      </c>
+      <c r="B57" s="15" t="s">
+        <v>334</v>
       </c>
       <c r="C57" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="58" ht="14.25" spans="1:1">
-      <c r="A58" s="3"/>
-    </row>
-    <row r="59" ht="14.25" spans="1:1">
-      <c r="A59" s="3"/>
-    </row>
-    <row r="60" ht="14.25" spans="1:1">
-      <c r="A60" s="3"/>
-    </row>
-    <row r="61" ht="14.25" spans="1:1">
-      <c r="A61" s="3"/>
-    </row>
-    <row r="62" ht="14.25" spans="1:1">
-      <c r="A62" s="3"/>
-    </row>
-    <row r="63" ht="14.25" spans="1:1">
-      <c r="A63" s="3"/>
-    </row>
-    <row r="64" ht="14.25" spans="1:1">
-      <c r="A64" s="3"/>
-    </row>
-    <row r="65" ht="14.25" spans="1:1">
-      <c r="A65" s="3"/>
-    </row>
-    <row r="66" ht="14.25" spans="1:1">
-      <c r="A66" s="3"/>
-    </row>
-    <row r="67" ht="14.25" spans="1:1">
-      <c r="A67" s="3"/>
-    </row>
-    <row r="68" ht="14.25" spans="1:1">
-      <c r="A68" s="3"/>
-    </row>
-    <row r="69" ht="14.25" spans="1:1">
-      <c r="A69" s="3"/>
-    </row>
-    <row r="70" ht="14.25" spans="1:1">
-      <c r="A70" s="3"/>
-    </row>
-    <row r="71" ht="14.25" spans="1:1">
-      <c r="A71" s="3"/>
-    </row>
-    <row r="72" ht="14.25" spans="1:1">
-      <c r="A72" s="3"/>
-    </row>
-    <row r="73" ht="14.25" spans="1:1">
-      <c r="A73" s="3"/>
-    </row>
-    <row r="74" ht="14.25" spans="1:1">
-      <c r="A74" s="3"/>
-    </row>
-    <row r="75" ht="14.25" spans="1:1">
-      <c r="A75" s="3"/>
-    </row>
-    <row r="76" ht="14.25" spans="1:1">
-      <c r="A76" s="3"/>
-    </row>
-    <row r="77" ht="14.25" spans="1:1">
-      <c r="A77" s="3"/>
-    </row>
-    <row r="78" ht="14.25" spans="1:1">
-      <c r="A78" s="3"/>
-    </row>
-    <row r="79" ht="14.25" spans="1:1">
-      <c r="A79" s="3"/>
-    </row>
-    <row r="80" ht="14.25" spans="1:1">
-      <c r="A80" s="3"/>
-    </row>
-    <row r="81" ht="14.25" spans="1:1">
-      <c r="A81" s="3"/>
-    </row>
-    <row r="82" ht="14.25" spans="1:1">
-      <c r="A82" s="3"/>
-    </row>
-    <row r="83" ht="14.25" spans="1:1">
-      <c r="A83" s="3"/>
-    </row>
-    <row r="84" ht="14.25" spans="1:1">
-      <c r="A84" s="3"/>
-    </row>
-    <row r="85" ht="14.25" spans="1:1">
-      <c r="A85" s="3"/>
-    </row>
-    <row r="86" ht="14.25" spans="1:1">
-      <c r="A86" s="3"/>
-    </row>
-    <row r="87" ht="14.25" spans="1:1">
-      <c r="A87" s="3"/>
-    </row>
-    <row r="88" ht="14.25" spans="1:1">
-      <c r="A88" s="3"/>
-    </row>
-    <row r="89" ht="14.25" spans="1:1">
-      <c r="A89" s="3"/>
-    </row>
-    <row r="90" ht="14.25" spans="1:1">
-      <c r="A90" s="3"/>
-    </row>
-    <row r="91" ht="14.25" spans="1:1">
-      <c r="A91" s="3"/>
-    </row>
-    <row r="92" ht="14.25" spans="1:1">
-      <c r="A92" s="3"/>
-    </row>
-    <row r="93" ht="14.25" spans="1:1">
-      <c r="A93" s="3"/>
-    </row>
-    <row r="94" ht="14.25" spans="1:1">
-      <c r="A94" s="3"/>
-    </row>
-    <row r="95" ht="14.25" spans="1:1">
-      <c r="A95" s="3"/>
-    </row>
-    <row r="96" ht="14.25" spans="1:1">
-      <c r="A96" s="3"/>
-    </row>
-    <row r="97" ht="14.25" spans="1:1">
-      <c r="A97" s="3"/>
-    </row>
-    <row r="98" ht="14.25" spans="1:1">
-      <c r="A98" s="3"/>
-    </row>
-    <row r="99" ht="14.25" spans="1:1">
-      <c r="A99" s="3"/>
-    </row>
-    <row r="100" ht="14.25" spans="1:1">
-      <c r="A100" s="3"/>
-    </row>
-    <row r="101" ht="14.25" spans="1:1">
-      <c r="A101" s="3"/>
-    </row>
-    <row r="102" ht="14.25" spans="1:1">
-      <c r="A102" s="3"/>
-    </row>
-    <row r="103" ht="14.25" spans="1:1">
-      <c r="A103" s="3"/>
-    </row>
-    <row r="104" ht="14.25" spans="1:1">
-      <c r="A104" s="3"/>
-    </row>
-    <row r="105" ht="14.25" spans="1:1">
-      <c r="A105" s="3"/>
-    </row>
-    <row r="106" ht="14.25" spans="1:1">
-      <c r="A106" s="3"/>
-    </row>
-    <row r="107" ht="14.25" spans="1:1">
-      <c r="A107" s="3"/>
-    </row>
-    <row r="108" ht="14.25" spans="1:1">
-      <c r="A108" s="3"/>
-    </row>
-    <row r="109" ht="14.25" spans="1:1">
-      <c r="A109" s="3"/>
-    </row>
-    <row r="110" ht="14.25" spans="1:1">
-      <c r="A110" s="3"/>
-    </row>
-    <row r="111" ht="14.25" spans="1:1">
-      <c r="A111" s="3"/>
-    </row>
-    <row r="112" ht="14.25" spans="1:1">
-      <c r="A112" s="3"/>
-    </row>
-    <row r="113" ht="14.25" spans="1:1">
-      <c r="A113" s="3"/>
-    </row>
-    <row r="114" ht="14.25" spans="1:2">
-      <c r="A114" s="3"/>
+      <c r="D57" s="16" t="s">
+        <v>334</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="F57" s="17" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+    </row>
+    <row r="59" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+    </row>
+    <row r="60" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+    </row>
+    <row r="61" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
+    </row>
+    <row r="62" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+    </row>
+    <row r="63" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="E63" s="3"/>
+      <c r="F63" s="3"/>
+    </row>
+    <row r="64" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="E64" s="3"/>
+      <c r="F64" s="3"/>
+    </row>
+    <row r="65" spans="5:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="E65" s="3"/>
+      <c r="F65" s="3"/>
+    </row>
+    <row r="66" spans="5:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="E66" s="3"/>
+      <c r="F66" s="3"/>
+    </row>
+    <row r="67" spans="5:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="E67" s="3"/>
+      <c r="F67" s="3"/>
+    </row>
+    <row r="68" spans="5:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="E68" s="3"/>
+      <c r="F68" s="3"/>
+    </row>
+    <row r="69" spans="5:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="E69" s="3"/>
+      <c r="F69" s="3"/>
+    </row>
+    <row r="70" spans="5:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="E70" s="3"/>
+      <c r="F70" s="3"/>
+    </row>
+    <row r="71" spans="5:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="E71" s="3"/>
+      <c r="F71" s="3"/>
+    </row>
+    <row r="72" spans="5:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="E72" s="3"/>
+      <c r="F72" s="3"/>
+    </row>
+    <row r="73" spans="5:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="E73" s="3"/>
+      <c r="F73" s="3"/>
+    </row>
+    <row r="74" spans="5:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="E74" s="3"/>
+      <c r="F74" s="3"/>
+    </row>
+    <row r="75" spans="5:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="E75" s="3"/>
+      <c r="F75" s="3"/>
+    </row>
+    <row r="76" spans="5:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="E76" s="3"/>
+      <c r="F76" s="3"/>
+    </row>
+    <row r="77" spans="5:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="E77" s="3"/>
+      <c r="F77" s="3"/>
+    </row>
+    <row r="78" spans="5:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="E78" s="3"/>
+      <c r="F78" s="3"/>
+    </row>
+    <row r="79" spans="5:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="E79" s="3"/>
+      <c r="F79" s="3"/>
+    </row>
+    <row r="80" spans="5:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="E80" s="3"/>
+      <c r="F80" s="3"/>
+    </row>
+    <row r="81" spans="5:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="E81" s="3"/>
+      <c r="F81" s="3"/>
+    </row>
+    <row r="82" spans="5:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="E82" s="3"/>
+      <c r="F82" s="3"/>
+    </row>
+    <row r="83" spans="5:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="E83" s="3"/>
+      <c r="F83" s="3"/>
+    </row>
+    <row r="84" spans="5:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="E84" s="3"/>
+      <c r="F84" s="3"/>
+    </row>
+    <row r="85" spans="5:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="E85" s="3"/>
+      <c r="F85" s="3"/>
+    </row>
+    <row r="86" spans="5:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="E86" s="3"/>
+      <c r="F86" s="3"/>
+    </row>
+    <row r="87" spans="5:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="E87" s="3"/>
+      <c r="F87" s="3"/>
+    </row>
+    <row r="88" spans="5:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="E88" s="3"/>
+      <c r="F88" s="3"/>
+    </row>
+    <row r="89" spans="5:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="E89" s="3"/>
+      <c r="F89" s="3"/>
+    </row>
+    <row r="90" spans="5:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="E90" s="3"/>
+      <c r="F90" s="3"/>
+    </row>
+    <row r="91" spans="5:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="E91" s="3"/>
+      <c r="F91" s="3"/>
+    </row>
+    <row r="92" spans="5:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="E92" s="3"/>
+      <c r="F92" s="3"/>
+    </row>
+    <row r="93" spans="5:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="E93" s="3"/>
+      <c r="F93" s="3"/>
+    </row>
+    <row r="94" spans="5:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="E94" s="3"/>
+      <c r="F94" s="3"/>
+    </row>
+    <row r="95" spans="5:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="E95" s="3"/>
+      <c r="F95" s="3"/>
+    </row>
+    <row r="96" spans="5:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="E96" s="3"/>
+      <c r="F96" s="3"/>
+    </row>
+    <row r="97" spans="5:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="E97" s="3"/>
+      <c r="F97" s="3"/>
+    </row>
+    <row r="98" spans="5:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="E98" s="3"/>
+      <c r="F98" s="3"/>
+    </row>
+    <row r="99" spans="5:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="E99" s="3"/>
+      <c r="F99" s="3"/>
+    </row>
+    <row r="100" spans="5:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="E100" s="3"/>
+      <c r="F100" s="3"/>
+    </row>
+    <row r="101" spans="5:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="E101" s="3"/>
+      <c r="F101" s="3"/>
+    </row>
+    <row r="102" spans="5:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="E102" s="3"/>
+      <c r="F102" s="3"/>
+    </row>
+    <row r="103" spans="5:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="E103" s="3"/>
+      <c r="F103" s="3"/>
+    </row>
+    <row r="104" spans="5:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="E104" s="3"/>
+      <c r="F104" s="3"/>
+    </row>
+    <row r="105" spans="5:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="E105" s="3"/>
+      <c r="F105" s="3"/>
+    </row>
+    <row r="106" spans="5:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="E106" s="3"/>
+      <c r="F106" s="3"/>
+    </row>
+    <row r="107" spans="5:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="E107" s="3"/>
+      <c r="F107" s="3"/>
+    </row>
+    <row r="108" spans="5:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="E108" s="3"/>
+      <c r="F108" s="3"/>
+    </row>
+    <row r="109" spans="5:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="E109" s="3"/>
+      <c r="F109" s="3"/>
+    </row>
+    <row r="110" spans="5:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="E110" s="3"/>
+      <c r="F110" s="3"/>
+    </row>
+    <row r="111" spans="5:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="E111" s="3"/>
+      <c r="F111" s="3"/>
+    </row>
+    <row r="112" spans="5:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="E112" s="3"/>
+      <c r="F112" s="3"/>
+    </row>
+    <row r="113" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="E113" s="3"/>
+      <c r="F113" s="3"/>
+    </row>
+    <row r="114" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A114" s="10"/>
       <c r="B114" s="10"/>
-    </row>
-    <row r="115" ht="14.25" spans="1:2">
-      <c r="A115" s="3"/>
+      <c r="E114" s="3"/>
+      <c r="F114" s="3"/>
+    </row>
+    <row r="115" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A115" s="10"/>
       <c r="B115" s="10"/>
-    </row>
-    <row r="116" ht="14.25" spans="1:2">
-      <c r="A116" s="3"/>
+      <c r="E115" s="3"/>
+      <c r="F115" s="3"/>
+    </row>
+    <row r="116" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A116" s="10"/>
       <c r="B116" s="10"/>
-    </row>
-    <row r="117" ht="14.25" spans="1:2">
-      <c r="A117" s="3"/>
+      <c r="E116" s="3"/>
+      <c r="F116" s="3"/>
+    </row>
+    <row r="117" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A117" s="10"/>
       <c r="B117" s="10"/>
-    </row>
-    <row r="118" ht="14.25" spans="1:2">
-      <c r="A118" s="3"/>
+      <c r="E117" s="3"/>
+      <c r="F117" s="3"/>
+    </row>
+    <row r="118" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A118" s="10"/>
       <c r="B118" s="10"/>
-    </row>
-    <row r="119" ht="14.25" spans="1:2">
-      <c r="A119" s="3"/>
+      <c r="E118" s="3"/>
+      <c r="F118" s="3"/>
+    </row>
+    <row r="119" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A119" s="10"/>
       <c r="B119" s="10"/>
-    </row>
-    <row r="120" ht="14.25" spans="1:2">
-      <c r="A120" s="3"/>
+      <c r="E119" s="3"/>
+      <c r="F119" s="3"/>
+    </row>
+    <row r="120" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A120" s="10"/>
       <c r="B120" s="10"/>
-    </row>
-    <row r="121" ht="14.25" spans="1:2">
-      <c r="A121" s="3"/>
+      <c r="E120" s="3"/>
+      <c r="F120" s="3"/>
+    </row>
+    <row r="121" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A121" s="10"/>
       <c r="B121" s="10"/>
-    </row>
-    <row r="122" ht="14.25" spans="1:2">
-      <c r="A122" s="3"/>
+      <c r="E121" s="3"/>
+      <c r="F121" s="3"/>
+    </row>
+    <row r="122" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A122" s="10"/>
       <c r="B122" s="10"/>
-    </row>
-    <row r="123" ht="14.25" spans="1:2">
-      <c r="A123" s="3"/>
+      <c r="E122" s="3"/>
+      <c r="F122" s="3"/>
+    </row>
+    <row r="123" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A123" s="10"/>
       <c r="B123" s="10"/>
-    </row>
-    <row r="124" ht="14.25" spans="1:2">
-      <c r="A124" s="3"/>
+      <c r="E123" s="3"/>
+      <c r="F123" s="3"/>
+    </row>
+    <row r="124" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A124" s="10"/>
       <c r="B124" s="10"/>
-    </row>
-    <row r="125" ht="14.25" spans="1:2">
-      <c r="A125" s="3"/>
+      <c r="E124" s="3"/>
+      <c r="F124" s="3"/>
+    </row>
+    <row r="125" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A125" s="10"/>
       <c r="B125" s="10"/>
-    </row>
-    <row r="126" ht="14.25" spans="1:2">
-      <c r="A126" s="3"/>
+      <c r="E125" s="3"/>
+      <c r="F125" s="3"/>
+    </row>
+    <row r="126" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A126" s="10"/>
       <c r="B126" s="10"/>
-    </row>
-    <row r="127" ht="14.25" spans="1:2">
-      <c r="A127" s="3"/>
+      <c r="E126" s="3"/>
+      <c r="F126" s="3"/>
+    </row>
+    <row r="127" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A127" s="10"/>
       <c r="B127" s="10"/>
-    </row>
-    <row r="128" ht="14.25" spans="1:2">
-      <c r="A128" s="3"/>
+      <c r="E127" s="3"/>
+      <c r="F127" s="3"/>
+    </row>
+    <row r="128" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A128" s="10"/>
       <c r="B128" s="10"/>
-    </row>
-    <row r="129" ht="14.25" spans="1:2">
-      <c r="A129" s="3"/>
+      <c r="E128" s="3"/>
+      <c r="F128" s="3"/>
+    </row>
+    <row r="129" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A129" s="10"/>
       <c r="B129" s="10"/>
-    </row>
-    <row r="130" ht="14.25" spans="1:2">
-      <c r="A130" s="3"/>
+      <c r="E129" s="3"/>
+      <c r="F129" s="3"/>
+    </row>
+    <row r="130" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A130" s="10"/>
       <c r="B130" s="10"/>
-    </row>
-    <row r="131" ht="14.25" spans="1:2">
-      <c r="A131" s="3"/>
+      <c r="E130" s="3"/>
+      <c r="F130" s="3"/>
+    </row>
+    <row r="131" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A131" s="10"/>
       <c r="B131" s="10"/>
-    </row>
-    <row r="132" ht="14.25" spans="1:2">
-      <c r="A132" s="3"/>
+      <c r="E131" s="3"/>
+      <c r="F131" s="3"/>
+    </row>
+    <row r="132" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A132" s="10"/>
       <c r="B132" s="10"/>
-    </row>
-    <row r="133" ht="14.25" spans="1:2">
-      <c r="A133" s="3"/>
+      <c r="E132" s="3"/>
+      <c r="F132" s="3"/>
+    </row>
+    <row r="133" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A133" s="10"/>
       <c r="B133" s="10"/>
-    </row>
-    <row r="134" ht="14.25" spans="1:2">
-      <c r="A134" s="3"/>
+      <c r="E133" s="3"/>
+      <c r="F133" s="3"/>
+    </row>
+    <row r="134" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A134" s="10"/>
       <c r="B134" s="10"/>
-    </row>
-    <row r="135" ht="14.25" spans="1:2">
-      <c r="A135" s="3"/>
+      <c r="E134" s="3"/>
+      <c r="F134" s="3"/>
+    </row>
+    <row r="135" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A135" s="10"/>
       <c r="B135" s="10"/>
-    </row>
-    <row r="136" ht="14.25" spans="1:2">
-      <c r="A136" s="3"/>
+      <c r="E135" s="3"/>
+      <c r="F135" s="3"/>
+    </row>
+    <row r="136" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A136" s="10"/>
       <c r="B136" s="10"/>
-    </row>
-    <row r="137" ht="14.25" spans="1:2">
-      <c r="A137" s="3"/>
+      <c r="E136" s="3"/>
+      <c r="F136" s="3"/>
+    </row>
+    <row r="137" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A137" s="10"/>
       <c r="B137" s="10"/>
-    </row>
-    <row r="138" ht="14.25" spans="1:2">
-      <c r="A138" s="3"/>
+      <c r="E137" s="3"/>
+      <c r="F137" s="3"/>
+    </row>
+    <row r="138" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A138" s="10"/>
       <c r="B138" s="10"/>
-    </row>
-    <row r="139" ht="14.25" spans="1:2">
-      <c r="A139" s="3"/>
+      <c r="E138" s="3"/>
+      <c r="F138" s="3"/>
+    </row>
+    <row r="139" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A139" s="10"/>
       <c r="B139" s="10"/>
-    </row>
-    <row r="140" ht="14.25" spans="1:2">
-      <c r="A140" s="3"/>
+      <c r="E139" s="3"/>
+      <c r="F139" s="3"/>
+    </row>
+    <row r="140" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A140" s="10"/>
       <c r="B140" s="10"/>
-    </row>
-    <row r="141" ht="14.25" spans="1:2">
-      <c r="A141" s="3"/>
+      <c r="E140" s="3"/>
+      <c r="F140" s="3"/>
+    </row>
+    <row r="141" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A141" s="10"/>
       <c r="B141" s="10"/>
-    </row>
-    <row r="142" ht="14.25" spans="1:2">
-      <c r="A142" s="3"/>
+      <c r="E141" s="3"/>
+      <c r="F141" s="3"/>
+    </row>
+    <row r="142" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A142" s="10"/>
       <c r="B142" s="10"/>
-    </row>
-    <row r="143" ht="14.25" spans="1:2">
-      <c r="A143" s="3"/>
+      <c r="E142" s="3"/>
+      <c r="F142" s="3"/>
+    </row>
+    <row r="143" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A143" s="10"/>
       <c r="B143" s="10"/>
-    </row>
-    <row r="144" ht="14.25" spans="1:2">
-      <c r="A144" s="3"/>
+      <c r="E143" s="3"/>
+      <c r="F143" s="3"/>
+    </row>
+    <row r="144" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A144" s="10"/>
       <c r="B144" s="10"/>
-    </row>
-    <row r="145" ht="14.25" spans="1:2">
-      <c r="A145" s="3"/>
+      <c r="E144" s="3"/>
+      <c r="F144" s="3"/>
+    </row>
+    <row r="145" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A145" s="10"/>
       <c r="B145" s="10"/>
-    </row>
-    <row r="146" ht="14.25" spans="1:2">
-      <c r="A146" s="3"/>
+      <c r="E145" s="3"/>
+      <c r="F145" s="3"/>
+    </row>
+    <row r="146" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A146" s="10"/>
       <c r="B146" s="10"/>
-    </row>
-    <row r="147" ht="14.25" spans="1:2">
-      <c r="A147" s="3"/>
+      <c r="E146" s="3"/>
+      <c r="F146" s="3"/>
+    </row>
+    <row r="147" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A147" s="10"/>
       <c r="B147" s="10"/>
-    </row>
-    <row r="148" ht="14.25" spans="1:2">
-      <c r="A148" s="3"/>
+      <c r="E147" s="3"/>
+      <c r="F147" s="3"/>
+    </row>
+    <row r="148" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A148" s="10"/>
       <c r="B148" s="10"/>
-    </row>
-    <row r="149" ht="14.25" spans="1:2">
-      <c r="A149" s="3"/>
+      <c r="E148" s="3"/>
+      <c r="F148" s="3"/>
+    </row>
+    <row r="149" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A149" s="10"/>
       <c r="B149" s="10"/>
-    </row>
-    <row r="150" ht="14.25" spans="1:2">
-      <c r="A150" s="3"/>
+      <c r="E149" s="3"/>
+      <c r="F149" s="3"/>
+    </row>
+    <row r="150" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A150" s="10"/>
       <c r="B150" s="10"/>
-    </row>
-    <row r="151" ht="14.25" spans="1:2">
-      <c r="A151" s="3"/>
+      <c r="E150" s="3"/>
+      <c r="F150" s="3"/>
+    </row>
+    <row r="151" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A151" s="10"/>
       <c r="B151" s="10"/>
-    </row>
-    <row r="152" ht="14.25" spans="1:2">
-      <c r="A152" s="3"/>
+      <c r="E151" s="3"/>
+      <c r="F151" s="3"/>
+    </row>
+    <row r="152" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A152" s="10"/>
       <c r="B152" s="10"/>
-    </row>
-    <row r="153" ht="14.25" spans="1:2">
-      <c r="A153" s="3"/>
+      <c r="E152" s="3"/>
+      <c r="F152" s="3"/>
+    </row>
+    <row r="153" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A153" s="10"/>
       <c r="B153" s="10"/>
-    </row>
-    <row r="154" ht="14.25" spans="1:2">
-      <c r="A154" s="3"/>
+      <c r="E153" s="3"/>
+      <c r="F153" s="3"/>
+    </row>
+    <row r="154" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A154" s="10"/>
       <c r="B154" s="10"/>
-    </row>
-    <row r="155" ht="14.25" spans="1:2">
-      <c r="A155" s="3"/>
+      <c r="E154" s="3"/>
+      <c r="F154" s="3"/>
+    </row>
+    <row r="155" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A155" s="10"/>
       <c r="B155" s="10"/>
-    </row>
-    <row r="156" ht="14.25" spans="1:2">
-      <c r="A156" s="3"/>
+      <c r="E155" s="3"/>
+      <c r="F155" s="3"/>
+    </row>
+    <row r="156" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A156" s="10"/>
       <c r="B156" s="10"/>
-    </row>
-    <row r="157" ht="14.25" spans="1:2">
-      <c r="A157" s="3"/>
+      <c r="E156" s="3"/>
+      <c r="F156" s="3"/>
+    </row>
+    <row r="157" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A157" s="10"/>
       <c r="B157" s="10"/>
-    </row>
-    <row r="158" ht="14.25" spans="1:2">
-      <c r="A158" s="3"/>
+      <c r="E157" s="3"/>
+      <c r="F157" s="3"/>
+    </row>
+    <row r="158" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A158" s="10"/>
       <c r="B158" s="10"/>
-    </row>
-    <row r="159" spans="2:2">
+      <c r="E158" s="3"/>
+      <c r="F158" s="3"/>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A159" s="10"/>
       <c r="B159" s="10"/>
     </row>
-    <row r="160" spans="2:2">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A160" s="10"/>
       <c r="B160" s="10"/>
     </row>
-    <row r="161" spans="2:2">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" s="10"/>
       <c r="B161" s="10"/>
     </row>
-    <row r="162" spans="2:2">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162" s="10"/>
       <c r="B162" s="10"/>
     </row>
-    <row r="163" spans="2:2">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163" s="10"/>
       <c r="B163" s="10"/>
     </row>
-    <row r="164" spans="2:2">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164" s="10"/>
       <c r="B164" s="10"/>
     </row>
-    <row r="165" spans="2:2">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165" s="10"/>
       <c r="B165" s="10"/>
     </row>
-    <row r="166" spans="2:2">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166" s="10"/>
       <c r="B166" s="10"/>
     </row>
-    <row r="167" spans="2:2">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167" s="10"/>
       <c r="B167" s="10"/>
     </row>
-    <row r="168" spans="2:2">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168" s="10"/>
       <c r="B168" s="10"/>
     </row>
-    <row r="169" spans="2:2">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169" s="10"/>
       <c r="B169" s="10"/>
     </row>
-    <row r="170" spans="2:2">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170" s="10"/>
       <c r="B170" s="10"/>
     </row>
-    <row r="171" spans="2:2">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171" s="10"/>
       <c r="B171" s="10"/>
     </row>
-    <row r="172" spans="2:2">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172" s="10"/>
       <c r="B172" s="10"/>
     </row>
-    <row r="173" spans="2:2">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173" s="10"/>
       <c r="B173" s="10"/>
     </row>
-    <row r="174" spans="2:2">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A174" s="10"/>
       <c r="B174" s="10"/>
     </row>
-    <row r="175" spans="2:2">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A175" s="10"/>
       <c r="B175" s="10"/>
     </row>
-    <row r="176" spans="2:2">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A176" s="10"/>
       <c r="B176" s="10"/>
     </row>
-    <row r="177" spans="2:2">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177" s="10"/>
       <c r="B177" s="10"/>
     </row>
-    <row r="178" spans="2:2">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178" s="10"/>
       <c r="B178" s="10"/>
     </row>
-    <row r="179" spans="2:2">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A179" s="10"/>
       <c r="B179" s="10"/>
     </row>
-    <row r="180" spans="2:2">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A180" s="10"/>
       <c r="B180" s="10"/>
     </row>
-    <row r="181" spans="2:2">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181" s="10"/>
       <c r="B181" s="10"/>
     </row>
-    <row r="182" spans="2:2">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A182" s="10"/>
       <c r="B182" s="10"/>
     </row>
-    <row r="183" spans="2:2">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A183" s="10"/>
       <c r="B183" s="10"/>
     </row>
-    <row r="184" spans="2:2">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A184" s="10"/>
       <c r="B184" s="10"/>
     </row>
-    <row r="185" spans="2:2">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A185" s="10"/>
       <c r="B185" s="10"/>
     </row>
-    <row r="186" spans="2:2">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A186" s="10"/>
       <c r="B186" s="10"/>
     </row>
-    <row r="187" spans="2:2">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A187" s="10"/>
       <c r="B187" s="10"/>
     </row>
-    <row r="188" spans="2:2">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A188" s="10"/>
       <c r="B188" s="10"/>
     </row>
-    <row r="189" spans="2:2">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A189" s="10"/>
       <c r="B189" s="10"/>
     </row>
-    <row r="190" spans="2:2">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A190" s="10"/>
       <c r="B190" s="10"/>
     </row>
-    <row r="191" spans="2:2">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A191" s="10"/>
       <c r="B191" s="10"/>
     </row>
-    <row r="192" spans="2:2">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A192" s="10"/>
       <c r="B192" s="10"/>
     </row>
-    <row r="193" spans="2:2">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A193" s="10"/>
       <c r="B193" s="10"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:D99"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:G99"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A57"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="G68" sqref="G68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.75" customWidth="1"/>
-    <col min="3" max="3" width="39.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="7.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7265625" customWidth="1"/>
+    <col min="6" max="6" width="2.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="23" customHeight="1" spans="1:3">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:7" ht="23" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="E1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="2"/>
+      <c r="G1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>4</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>334</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="D2" s="18" t="s">
+        <v>334</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>335</v>
+      </c>
+      <c r="G2" s="15"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>7</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>334</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="5"/>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="D3" s="18" t="s">
+        <v>334</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>335</v>
+      </c>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>10</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>334</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="D4" s="18" t="s">
+        <v>334</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>13</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>334</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="D5" s="18" t="s">
+        <v>334</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>16</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>334</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="D6" s="18" t="s">
+        <v>334</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>19</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>334</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="D7" s="18" t="s">
+        <v>334</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>22</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>334</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="D8" s="18" t="s">
+        <v>334</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>25</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>334</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="D9" s="18" t="s">
+        <v>334</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>28</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>334</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="D10" s="18" t="s">
+        <v>334</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>52</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>334</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="D11" s="18" t="s">
+        <v>334</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>55</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>334</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="D12" s="18" t="s">
+        <v>334</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>58</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>334</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="D13" s="18" t="s">
+        <v>334</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>61</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>334</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="D14" s="18" t="s">
+        <v>334</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="F14" s="17" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>64</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>334</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="D15" s="18" t="s">
+        <v>334</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>67</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>334</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="D16" s="18" t="s">
+        <v>334</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>70</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>334</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="D17" s="18" t="s">
+        <v>334</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>73</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>334</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="D18" s="18" t="s">
+        <v>334</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="F18" s="17" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>76</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>334</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="D19" s="18" t="s">
+        <v>334</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="F19" s="17" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>79</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>334</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="B21" t="s">
+      <c r="D20" s="18" t="s">
+        <v>334</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="F20" s="17" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>82</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>334</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="B22" t="s">
+      <c r="D21" s="18" t="s">
+        <v>334</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="F21" s="17" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>85</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>334</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="B23" t="s">
+      <c r="D22" s="18" t="s">
+        <v>334</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="F22" s="17" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>88</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>334</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="B24" t="s">
+      <c r="D23" s="18" t="s">
+        <v>334</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="F23" s="17" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>91</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>334</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="B25" t="s">
+      <c r="D24" s="18" t="s">
+        <v>334</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="F24" s="17" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>94</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>334</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="B26" t="s">
+      <c r="D25" s="18" t="s">
+        <v>334</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="F25" s="17" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>97</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>334</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="B27" t="s">
+      <c r="D26" s="18" t="s">
+        <v>334</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="F26" s="17" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>99</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>334</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="B28" t="s">
+      <c r="D27" s="18" t="s">
+        <v>334</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="F27" s="17" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>102</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>334</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="B29" t="s">
+      <c r="D28" s="18" t="s">
+        <v>334</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="F28" s="17" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>105</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>334</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="B30" t="s">
+      <c r="D29" s="18" t="s">
+        <v>334</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="F29" s="17" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>108</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>334</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="B31" t="s">
+      <c r="D30" s="18" t="s">
+        <v>334</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="F30" s="17" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>111</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>334</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="B32" t="s">
+      <c r="D31" s="18" t="s">
+        <v>334</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="F31" s="17" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>114</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>334</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="B33" t="s">
+      <c r="D32" s="18" t="s">
+        <v>334</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="F32" s="17" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>117</v>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>334</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="B34" t="s">
+      <c r="D33" s="18" t="s">
+        <v>334</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="F33" s="17" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>120</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>334</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="B35" t="s">
+      <c r="D34" s="18" t="s">
+        <v>334</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="F34" s="17" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>123</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>334</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="B36" t="s">
+      <c r="D35" s="18" t="s">
+        <v>334</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="F35" s="17" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>126</v>
+      </c>
+      <c r="B36" s="15" t="s">
+        <v>334</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="B37" t="s">
+      <c r="D36" s="18" t="s">
+        <v>334</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="F36" s="17" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>129</v>
+      </c>
+      <c r="B37" s="15" t="s">
+        <v>334</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="B38" t="s">
+      <c r="D37" s="18" t="s">
+        <v>334</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="F37" s="17" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>132</v>
+      </c>
+      <c r="B38" s="15" t="s">
+        <v>334</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="B39" t="s">
+      <c r="D38" s="18" t="s">
+        <v>334</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="F38" s="17" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>135</v>
+      </c>
+      <c r="B39" s="15" t="s">
+        <v>334</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="B40" t="s">
+      <c r="D39" s="18" t="s">
+        <v>334</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="F39" s="17" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>138</v>
+      </c>
+      <c r="B40" s="15" t="s">
+        <v>334</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="B41" t="s">
+      <c r="D40" s="18" t="s">
+        <v>334</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="F40" s="17" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>141</v>
+      </c>
+      <c r="B41" s="15" t="s">
+        <v>334</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="B42" t="s">
+      <c r="D41" s="18" t="s">
+        <v>334</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="F41" s="17" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>144</v>
+      </c>
+      <c r="B42" s="15" t="s">
+        <v>334</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="B43" t="s">
+      <c r="D42" s="18" t="s">
+        <v>334</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="F42" s="17" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>147</v>
+      </c>
+      <c r="B43" s="15" t="s">
+        <v>334</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="B44" t="s">
+      <c r="D43" s="18" t="s">
+        <v>334</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="F43" s="17" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>150</v>
+      </c>
+      <c r="B44" s="15" t="s">
+        <v>334</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="B45" t="s">
+      <c r="D44" s="18" t="s">
+        <v>334</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="F44" s="17" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>153</v>
+      </c>
+      <c r="B45" s="15" t="s">
+        <v>334</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="B46" t="s">
+      <c r="D45" s="18" t="s">
+        <v>334</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="F45" s="17" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>156</v>
+      </c>
+      <c r="B46" s="15" t="s">
+        <v>334</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="B47" t="s">
+      <c r="D46" s="18" t="s">
+        <v>334</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="F46" s="17" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>159</v>
+      </c>
+      <c r="B47" s="15" t="s">
+        <v>334</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="B48" t="s">
+      <c r="D47" s="18" t="s">
+        <v>334</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="F47" s="17" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>161</v>
+      </c>
+      <c r="B48" s="15" t="s">
+        <v>334</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="B49" t="s">
+      <c r="D48" s="18" t="s">
+        <v>334</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="F48" s="17" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>163</v>
+      </c>
+      <c r="B49" s="15" t="s">
+        <v>334</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="B50" t="s">
+      <c r="D49" s="18" t="s">
+        <v>334</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="F49" s="17" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>165</v>
+      </c>
+      <c r="B50" s="15" t="s">
+        <v>334</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="B51" t="s">
+      <c r="D50" s="18" t="s">
+        <v>334</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="F50" s="17" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>168</v>
+      </c>
+      <c r="B51" s="15" t="s">
+        <v>334</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="B52" t="s">
+      <c r="D51" s="18" t="s">
+        <v>334</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="F51" s="17" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>171</v>
+      </c>
+      <c r="B52" s="15" t="s">
+        <v>334</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="B53" t="s">
+      <c r="D52" s="18" t="s">
+        <v>334</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="F52" s="17" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>174</v>
+      </c>
+      <c r="B53" s="15" t="s">
+        <v>334</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="B54" t="s">
+      <c r="D53" s="18" t="s">
+        <v>334</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="F53" s="17" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>177</v>
+      </c>
+      <c r="B54" s="15" t="s">
+        <v>334</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="B55" t="s">
+      <c r="D54" s="18" t="s">
+        <v>334</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="F54" s="17" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>180</v>
+      </c>
+      <c r="B55" s="15" t="s">
+        <v>334</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="B56" t="s">
+      <c r="D55" s="18" t="s">
+        <v>334</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="F55" s="17" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>183</v>
+      </c>
+      <c r="B56" s="15" t="s">
+        <v>334</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="B57" t="s">
+      <c r="D56" s="18" t="s">
+        <v>334</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="F56" s="17" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>186</v>
+      </c>
+      <c r="B57" s="15" t="s">
+        <v>334</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="58" spans="1:1">
-      <c r="A58" s="3"/>
-    </row>
-    <row r="59" spans="1:1">
-      <c r="A59" s="3"/>
-    </row>
-    <row r="60" spans="1:1">
-      <c r="A60" s="3"/>
-    </row>
-    <row r="61" spans="1:1">
-      <c r="A61" s="3"/>
-    </row>
-    <row r="62" spans="1:1">
-      <c r="A62" s="3"/>
-    </row>
-    <row r="63" spans="1:1">
-      <c r="A63" s="3"/>
-    </row>
-    <row r="64" spans="1:1">
-      <c r="A64" s="3"/>
-    </row>
-    <row r="65" spans="1:1">
-      <c r="A65" s="3"/>
-    </row>
-    <row r="66" spans="1:1">
-      <c r="A66" s="3"/>
-    </row>
-    <row r="67" spans="1:1">
-      <c r="A67" s="3"/>
-    </row>
-    <row r="68" spans="1:1">
-      <c r="A68" s="3"/>
-    </row>
-    <row r="69" spans="1:1">
-      <c r="A69" s="3"/>
-    </row>
-    <row r="70" spans="1:1">
-      <c r="A70" s="3"/>
-    </row>
-    <row r="71" spans="1:1">
-      <c r="A71" s="3"/>
-    </row>
-    <row r="72" spans="1:1">
-      <c r="A72" s="3"/>
-    </row>
-    <row r="73" spans="1:1">
-      <c r="A73" s="3"/>
-    </row>
-    <row r="74" spans="1:1">
-      <c r="A74" s="3"/>
-    </row>
-    <row r="75" spans="1:1">
-      <c r="A75" s="3"/>
-    </row>
-    <row r="76" spans="1:1">
-      <c r="A76" s="3"/>
-    </row>
-    <row r="77" spans="1:1">
-      <c r="A77" s="3"/>
-    </row>
-    <row r="78" spans="1:1">
-      <c r="A78" s="3"/>
-    </row>
-    <row r="79" spans="1:1">
-      <c r="A79" s="3"/>
-    </row>
-    <row r="80" spans="1:1">
-      <c r="A80" s="3"/>
-    </row>
-    <row r="81" spans="1:1">
-      <c r="A81" s="3"/>
-    </row>
-    <row r="82" spans="1:1">
-      <c r="A82" s="3"/>
-    </row>
-    <row r="83" spans="1:1">
-      <c r="A83" s="3"/>
-    </row>
-    <row r="84" spans="1:1">
-      <c r="A84" s="3"/>
-    </row>
-    <row r="85" spans="1:1">
-      <c r="A85" s="3"/>
-    </row>
-    <row r="86" spans="1:1">
-      <c r="A86" s="3"/>
-    </row>
-    <row r="87" spans="1:1">
-      <c r="A87" s="3"/>
-    </row>
-    <row r="88" spans="1:1">
-      <c r="A88" s="3"/>
-    </row>
-    <row r="89" spans="1:1">
-      <c r="A89" s="3"/>
-    </row>
-    <row r="90" spans="1:1">
-      <c r="A90" s="3"/>
-    </row>
-    <row r="91" spans="1:1">
-      <c r="A91" s="3"/>
-    </row>
-    <row r="92" spans="1:1">
-      <c r="A92" s="3"/>
-    </row>
-    <row r="93" spans="1:1">
-      <c r="A93" s="3"/>
-    </row>
-    <row r="94" spans="1:1">
-      <c r="A94" s="3"/>
-    </row>
-    <row r="95" spans="1:1">
-      <c r="A95" s="3"/>
-    </row>
-    <row r="96" spans="1:1">
-      <c r="A96" s="3"/>
-    </row>
-    <row r="97" spans="1:1">
-      <c r="A97" s="3"/>
-    </row>
-    <row r="98" spans="1:1">
-      <c r="A98" s="3"/>
-    </row>
-    <row r="99" spans="1:1">
-      <c r="A99" s="3"/>
+      <c r="D57" s="18" t="s">
+        <v>334</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="F57" s="17" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E63" s="3"/>
+      <c r="F63" s="3"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E64" s="3"/>
+      <c r="F64" s="3"/>
+    </row>
+    <row r="65" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E65" s="3"/>
+      <c r="F65" s="3"/>
+    </row>
+    <row r="66" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E66" s="3"/>
+      <c r="F66" s="3"/>
+    </row>
+    <row r="67" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E67" s="3"/>
+      <c r="F67" s="3"/>
+    </row>
+    <row r="68" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E68" s="3"/>
+      <c r="F68" s="3"/>
+    </row>
+    <row r="69" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E69" s="3"/>
+      <c r="F69" s="3"/>
+    </row>
+    <row r="70" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E70" s="3"/>
+      <c r="F70" s="3"/>
+    </row>
+    <row r="71" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E71" s="3"/>
+      <c r="F71" s="3"/>
+    </row>
+    <row r="72" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E72" s="3"/>
+      <c r="F72" s="3"/>
+    </row>
+    <row r="73" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E73" s="3"/>
+      <c r="F73" s="3"/>
+    </row>
+    <row r="74" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E74" s="3"/>
+      <c r="F74" s="3"/>
+    </row>
+    <row r="75" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E75" s="3"/>
+      <c r="F75" s="3"/>
+    </row>
+    <row r="76" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E76" s="3"/>
+      <c r="F76" s="3"/>
+    </row>
+    <row r="77" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E77" s="3"/>
+      <c r="F77" s="3"/>
+    </row>
+    <row r="78" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E78" s="3"/>
+      <c r="F78" s="3"/>
+    </row>
+    <row r="79" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E79" s="3"/>
+      <c r="F79" s="3"/>
+    </row>
+    <row r="80" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E80" s="3"/>
+      <c r="F80" s="3"/>
+    </row>
+    <row r="81" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E81" s="3"/>
+      <c r="F81" s="3"/>
+    </row>
+    <row r="82" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E82" s="3"/>
+      <c r="F82" s="3"/>
+    </row>
+    <row r="83" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E83" s="3"/>
+      <c r="F83" s="3"/>
+    </row>
+    <row r="84" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E84" s="3"/>
+      <c r="F84" s="3"/>
+    </row>
+    <row r="85" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E85" s="3"/>
+      <c r="F85" s="3"/>
+    </row>
+    <row r="86" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E86" s="3"/>
+      <c r="F86" s="3"/>
+    </row>
+    <row r="87" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E87" s="3"/>
+      <c r="F87" s="3"/>
+    </row>
+    <row r="88" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E88" s="3"/>
+      <c r="F88" s="3"/>
+    </row>
+    <row r="89" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E89" s="3"/>
+      <c r="F89" s="3"/>
+    </row>
+    <row r="90" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E90" s="3"/>
+      <c r="F90" s="3"/>
+    </row>
+    <row r="91" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E91" s="3"/>
+      <c r="F91" s="3"/>
+    </row>
+    <row r="92" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E92" s="3"/>
+      <c r="F92" s="3"/>
+    </row>
+    <row r="93" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E93" s="3"/>
+      <c r="F93" s="3"/>
+    </row>
+    <row r="94" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E94" s="3"/>
+      <c r="F94" s="3"/>
+    </row>
+    <row r="95" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E95" s="3"/>
+      <c r="F95" s="3"/>
+    </row>
+    <row r="96" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E96" s="3"/>
+      <c r="F96" s="3"/>
+    </row>
+    <row r="97" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E97" s="3"/>
+      <c r="F97" s="3"/>
+    </row>
+    <row r="98" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E98" s="3"/>
+      <c r="F98" s="3"/>
+    </row>
+    <row r="99" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E99" s="3"/>
+      <c r="F99" s="3"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:C99"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:G99"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A39"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:F39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.75" customWidth="1"/>
-    <col min="3" max="3" width="39.625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="7.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.54296875" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.36328125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="E1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="2"/>
+      <c r="G1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>4</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>334</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="D2" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>7</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>334</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="D3" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>10</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>334</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="D4" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>13</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>334</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="D5" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>16</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>334</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="D6" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>19</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>334</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="D7" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>22</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>334</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="D8" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>25</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>334</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="D9" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>28</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>334</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="D10" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>52</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>334</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="D11" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>55</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>334</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="D12" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>58</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>334</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="D13" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>61</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>334</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="D14" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="F14" s="17" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>64</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>334</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="D15" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>67</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>334</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="D16" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>70</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>334</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="D17" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>73</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>334</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="D18" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="F18" s="17" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>76</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>334</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="D19" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="F19" s="17" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>79</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>334</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="B21" t="s">
+      <c r="D20" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="F20" s="17" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>82</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>334</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="B22" t="s">
+      <c r="D21" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="F21" s="17" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>85</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>334</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="B23" t="s">
+      <c r="D22" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="F22" s="17" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>88</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>334</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="B24" t="s">
+      <c r="D23" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="F23" s="17" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>91</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>334</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="B25" t="s">
+      <c r="D24" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="F24" s="17" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>94</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>334</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="B26" t="s">
+      <c r="D25" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="F25" s="17" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>97</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>334</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="B27" t="s">
+      <c r="D26" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="F26" s="17" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>99</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>334</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="B28" t="s">
+      <c r="D27" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="F27" s="17" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>102</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>334</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="B29" t="s">
+      <c r="D28" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="F28" s="17" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>105</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>334</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="B30" t="s">
+      <c r="D29" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="F29" s="17" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>108</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>334</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="B31" t="s">
+      <c r="D30" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="F30" s="17" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>111</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>334</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="B32" t="s">
+      <c r="D31" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="F31" s="17" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>114</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>334</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="B33" t="s">
+      <c r="D32" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="F32" s="17" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>117</v>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>334</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="B34" t="s">
+      <c r="D33" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="F33" s="17" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>120</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>334</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="B35" t="s">
+      <c r="D34" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="F34" s="17" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>123</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>334</v>
       </c>
       <c r="C35" s="6" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="B36" t="s">
+      <c r="D35" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="F35" s="17" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>126</v>
+      </c>
+      <c r="B36" s="15" t="s">
+        <v>334</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="B37" t="s">
+      <c r="D36" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="F36" s="17" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>129</v>
+      </c>
+      <c r="B37" s="15" t="s">
+        <v>334</v>
       </c>
       <c r="C37" s="6" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="B38" t="s">
+      <c r="D37" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="F37" s="17" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>132</v>
+      </c>
+      <c r="B38" s="15" t="s">
+        <v>334</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="B39" t="s">
+      <c r="D38" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="F38" s="17" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>135</v>
+      </c>
+      <c r="B39" s="15" t="s">
+        <v>334</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="3"/>
+      <c r="D39" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="F39" s="17" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" s="3"/>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" s="3"/>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" s="3"/>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" s="3"/>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" s="3"/>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" s="3"/>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" s="3"/>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" s="3"/>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" s="3"/>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+    </row>
+    <row r="49" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C49" s="3"/>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+    </row>
+    <row r="50" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C50" s="3"/>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+    </row>
+    <row r="51" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C51" s="3"/>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+    </row>
+    <row r="52" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C52" s="3"/>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+    </row>
+    <row r="53" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C53" s="3"/>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+    </row>
+    <row r="54" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C54" s="3"/>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+    </row>
+    <row r="55" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C55" s="3"/>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" s="3"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+    </row>
+    <row r="56" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C56" s="3"/>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+    </row>
+    <row r="57" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C57" s="3"/>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" s="3"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+    </row>
+    <row r="58" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C58" s="3"/>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+    </row>
+    <row r="59" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C59" s="3"/>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+    </row>
+    <row r="60" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C60" s="3"/>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" s="3"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+    </row>
+    <row r="61" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C61" s="3"/>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" s="3"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
+    </row>
+    <row r="62" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C62" s="3"/>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+    </row>
+    <row r="63" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C63" s="3"/>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="A64" s="3"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3"/>
+    </row>
+    <row r="64" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C64" s="3"/>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="A65" s="3"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3"/>
+    </row>
+    <row r="65" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C65" s="3"/>
-    </row>
-    <row r="66" spans="1:1">
-      <c r="A66" s="3"/>
-    </row>
-    <row r="67" spans="1:1">
-      <c r="A67" s="3"/>
-    </row>
-    <row r="68" spans="1:1">
-      <c r="A68" s="3"/>
-    </row>
-    <row r="69" spans="1:1">
-      <c r="A69" s="3"/>
-    </row>
-    <row r="70" spans="1:1">
-      <c r="A70" s="3"/>
-    </row>
-    <row r="71" spans="1:1">
-      <c r="A71" s="3"/>
-    </row>
-    <row r="72" spans="1:1">
-      <c r="A72" s="3"/>
-    </row>
-    <row r="73" spans="1:1">
-      <c r="A73" s="3"/>
-    </row>
-    <row r="74" spans="1:1">
-      <c r="A74" s="3"/>
-    </row>
-    <row r="75" spans="1:1">
-      <c r="A75" s="3"/>
-    </row>
-    <row r="76" spans="1:1">
-      <c r="A76" s="3"/>
-    </row>
-    <row r="77" spans="1:1">
-      <c r="A77" s="3"/>
-    </row>
-    <row r="78" spans="1:1">
-      <c r="A78" s="3"/>
-    </row>
-    <row r="79" spans="1:1">
-      <c r="A79" s="3"/>
-    </row>
-    <row r="80" spans="1:1">
-      <c r="A80" s="3"/>
-    </row>
-    <row r="81" spans="1:1">
-      <c r="A81" s="3"/>
-    </row>
-    <row r="82" spans="1:1">
-      <c r="A82" s="3"/>
-    </row>
-    <row r="83" spans="1:1">
-      <c r="A83" s="3"/>
-    </row>
-    <row r="84" spans="1:1">
-      <c r="A84" s="3"/>
-    </row>
-    <row r="85" spans="1:1">
-      <c r="A85" s="3"/>
-    </row>
-    <row r="86" spans="1:1">
-      <c r="A86" s="3"/>
-    </row>
-    <row r="87" spans="1:1">
-      <c r="A87" s="3"/>
-    </row>
-    <row r="88" spans="1:1">
-      <c r="A88" s="3"/>
-    </row>
-    <row r="89" spans="1:1">
-      <c r="A89" s="3"/>
-    </row>
-    <row r="90" spans="1:1">
-      <c r="A90" s="3"/>
-    </row>
-    <row r="91" spans="1:1">
-      <c r="A91" s="3"/>
-    </row>
-    <row r="92" spans="1:1">
-      <c r="A92" s="3"/>
-    </row>
-    <row r="93" spans="1:1">
-      <c r="A93" s="3"/>
-    </row>
-    <row r="94" spans="1:1">
-      <c r="A94" s="3"/>
-    </row>
-    <row r="95" spans="1:1">
-      <c r="A95" s="3"/>
-    </row>
-    <row r="96" spans="1:1">
-      <c r="A96" s="3"/>
-    </row>
-    <row r="97" spans="1:1">
-      <c r="A97" s="3"/>
-    </row>
-    <row r="98" spans="1:1">
-      <c r="A98" s="3"/>
-    </row>
-    <row r="99" spans="1:1">
-      <c r="A99" s="3"/>
+      <c r="D65" s="3"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="3"/>
+    </row>
+    <row r="66" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="E66" s="3"/>
+      <c r="F66" s="3"/>
+    </row>
+    <row r="67" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="E67" s="3"/>
+      <c r="F67" s="3"/>
+    </row>
+    <row r="68" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="E68" s="3"/>
+      <c r="F68" s="3"/>
+    </row>
+    <row r="69" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="E69" s="3"/>
+      <c r="F69" s="3"/>
+    </row>
+    <row r="70" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="E70" s="3"/>
+      <c r="F70" s="3"/>
+    </row>
+    <row r="71" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="E71" s="3"/>
+      <c r="F71" s="3"/>
+    </row>
+    <row r="72" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="E72" s="3"/>
+      <c r="F72" s="3"/>
+    </row>
+    <row r="73" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="E73" s="3"/>
+      <c r="F73" s="3"/>
+    </row>
+    <row r="74" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="E74" s="3"/>
+      <c r="F74" s="3"/>
+    </row>
+    <row r="75" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="E75" s="3"/>
+      <c r="F75" s="3"/>
+    </row>
+    <row r="76" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="E76" s="3"/>
+      <c r="F76" s="3"/>
+    </row>
+    <row r="77" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="E77" s="3"/>
+      <c r="F77" s="3"/>
+    </row>
+    <row r="78" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="E78" s="3"/>
+      <c r="F78" s="3"/>
+    </row>
+    <row r="79" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="E79" s="3"/>
+      <c r="F79" s="3"/>
+    </row>
+    <row r="80" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="E80" s="3"/>
+      <c r="F80" s="3"/>
+    </row>
+    <row r="81" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E81" s="3"/>
+      <c r="F81" s="3"/>
+    </row>
+    <row r="82" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E82" s="3"/>
+      <c r="F82" s="3"/>
+    </row>
+    <row r="83" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E83" s="3"/>
+      <c r="F83" s="3"/>
+    </row>
+    <row r="84" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E84" s="3"/>
+      <c r="F84" s="3"/>
+    </row>
+    <row r="85" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E85" s="3"/>
+      <c r="F85" s="3"/>
+    </row>
+    <row r="86" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E86" s="3"/>
+      <c r="F86" s="3"/>
+    </row>
+    <row r="87" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E87" s="3"/>
+      <c r="F87" s="3"/>
+    </row>
+    <row r="88" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E88" s="3"/>
+      <c r="F88" s="3"/>
+    </row>
+    <row r="89" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E89" s="3"/>
+      <c r="F89" s="3"/>
+    </row>
+    <row r="90" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E90" s="3"/>
+      <c r="F90" s="3"/>
+    </row>
+    <row r="91" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E91" s="3"/>
+      <c r="F91" s="3"/>
+    </row>
+    <row r="92" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E92" s="3"/>
+      <c r="F92" s="3"/>
+    </row>
+    <row r="93" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E93" s="3"/>
+      <c r="F93" s="3"/>
+    </row>
+    <row r="94" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E94" s="3"/>
+      <c r="F94" s="3"/>
+    </row>
+    <row r="95" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E95" s="3"/>
+      <c r="F95" s="3"/>
+    </row>
+    <row r="96" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E96" s="3"/>
+      <c r="F96" s="3"/>
+    </row>
+    <row r="97" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E97" s="3"/>
+      <c r="F97" s="3"/>
+    </row>
+    <row r="98" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E98" s="3"/>
+      <c r="F98" s="3"/>
+    </row>
+    <row r="99" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E99" s="3"/>
+      <c r="F99" s="3"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A10"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.75" customWidth="1"/>
-    <col min="3" max="3" width="30.25" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.7265625" customWidth="1"/>
+    <col min="3" max="3" width="30.26953125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="23" customHeight="1" spans="1:3">
+    <row r="1" spans="1:3" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5891,7 +7012,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>321</v>
       </c>
@@ -5902,7 +7023,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>322</v>
       </c>
@@ -5913,7 +7034,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>323</v>
       </c>
@@ -5924,7 +7045,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>324</v>
       </c>
@@ -5935,7 +7056,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>325</v>
       </c>
@@ -5946,7 +7067,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>327</v>
       </c>
@@ -5957,7 +7078,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>328</v>
       </c>
@@ -5968,7 +7089,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>329</v>
       </c>
@@ -5979,7 +7100,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>330</v>
       </c>
@@ -5990,305 +7111,305 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="C11" s="4"/>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="C12" s="4"/>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="C13" s="4"/>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="C14" s="4"/>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="C33" s="4"/>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
       <c r="C39" s="4"/>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="C40" s="4"/>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="C41" s="4"/>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
       <c r="C42" s="4"/>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
       <c r="C43" s="4"/>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
       <c r="C44" s="4"/>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
       <c r="C45" s="4"/>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
       <c r="C46" s="4"/>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="3"/>
       <c r="C47" s="4"/>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
       <c r="C48" s="4"/>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="3"/>
       <c r="C49" s="4"/>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="3"/>
       <c r="C50" s="4"/>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="3"/>
       <c r="C51" s="4"/>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="3"/>
       <c r="C52" s="4"/>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="3"/>
       <c r="C53" s="4"/>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="3"/>
       <c r="C54" s="4"/>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="3"/>
       <c r="C55" s="4"/>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="3"/>
       <c r="C56" s="4"/>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="3"/>
       <c r="C57" s="4"/>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="3"/>
       <c r="C58" s="4"/>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="3"/>
       <c r="C59" s="4"/>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="3"/>
       <c r="C60" s="4"/>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="3"/>
       <c r="C61" s="4"/>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="3"/>
       <c r="C62" s="4"/>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="3"/>
       <c r="C63" s="4"/>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="3"/>
       <c r="C64" s="4"/>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="3"/>
       <c r="C65" s="4"/>
     </row>
-    <row r="66" spans="1:1">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="3"/>
     </row>
-    <row r="67" spans="1:1">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="3"/>
     </row>
-    <row r="68" spans="1:1">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="3"/>
     </row>
-    <row r="69" spans="1:1">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="3"/>
     </row>
-    <row r="70" spans="1:1">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="3"/>
     </row>
-    <row r="71" spans="1:1">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
     </row>
-    <row r="72" spans="1:1">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="3"/>
     </row>
-    <row r="73" spans="1:1">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="3"/>
     </row>
-    <row r="74" spans="1:1">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="3"/>
     </row>
-    <row r="75" spans="1:1">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="3"/>
     </row>
-    <row r="76" spans="1:1">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="3"/>
     </row>
-    <row r="77" spans="1:1">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="3"/>
     </row>
-    <row r="78" spans="1:1">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="3"/>
     </row>
-    <row r="79" spans="1:1">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="3"/>
     </row>
-    <row r="80" spans="1:1">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="3"/>
     </row>
-    <row r="81" spans="1:1">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="3"/>
     </row>
-    <row r="82" spans="1:1">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="3"/>
     </row>
-    <row r="83" spans="1:1">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="3"/>
     </row>
-    <row r="84" spans="1:1">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="3"/>
     </row>
-    <row r="85" spans="1:1">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="3"/>
     </row>
-    <row r="86" spans="1:1">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="3"/>
     </row>
-    <row r="87" spans="1:1">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="3"/>
     </row>
-    <row r="88" spans="1:1">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="3"/>
     </row>
-    <row r="89" spans="1:2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="3"/>
       <c r="B89" s="5"/>
     </row>
-    <row r="90" spans="1:1">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="3"/>
     </row>
-    <row r="91" spans="1:1">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="3"/>
     </row>
-    <row r="92" spans="1:1">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="3"/>
     </row>
-    <row r="93" spans="1:1">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="3"/>
     </row>
-    <row r="94" spans="1:1">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="3"/>
     </row>
-    <row r="95" spans="1:1">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="3"/>
     </row>
-    <row r="96" spans="1:1">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="3"/>
     </row>
-    <row r="97" spans="1:1">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" s="3"/>
     </row>
-    <row r="98" spans="1:1">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" s="3"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>